--- a/gpyopt_test_results.xlsx
+++ b/gpyopt_test_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zoetan/Documents/Cambridge/IIB/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72657467-38FD-3141-A295-0593696D84E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECE6D2D-3B2A-9146-8642-DB921780BE80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,16 +22,12 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$M$407</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet5!$F$2:$F$7</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet5!$F$8:$F$13</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet5!$L$2:$L$7</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet5!$L$8:$L$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="134" r:id="rId7"/>
-    <pivotCache cacheId="135" r:id="rId8"/>
-    <pivotCache cacheId="140" r:id="rId9"/>
+    <pivotCache cacheId="144" r:id="rId7"/>
+    <pivotCache cacheId="145" r:id="rId8"/>
+    <pivotCache cacheId="156" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -6711,6 +6707,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
@@ -6726,6 +6763,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
@@ -6782,6 +6860,21 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -6871,7 +6964,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5DEA-A048-8713-83E9D8718F12}"/>
+              <c16:uniqueId val="{00000004-D24B-0C42-BB1E-64E60D551DA7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6957,7 +7050,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5DEA-A048-8713-83E9D8718F12}"/>
+              <c16:uniqueId val="{00000005-D24B-0C42-BB1E-64E60D551DA7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9770,7 +9863,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44137.039200115738" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="74" xr:uid="{0515FC9D-081B-0848-B3DF-33AD91D73F40}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44137.711901273149" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="74" xr:uid="{0515FC9D-081B-0848-B3DF-33AD91D73F40}">
   <cacheSource type="worksheet">
     <worksheetSource ref="B1:M1048576" sheet="Sheet5"/>
   </cacheSource>
@@ -9818,81 +9911,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.482199689329628E-5" maxValue="120.8511515552747"/>
     </cacheField>
     <cacheField name="time per iteration" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.12089008331298828" maxValue="0.53815221150716142" count="73">
-        <n v="0.27939628124237059"/>
-        <n v="0.23622003555297857"/>
-        <n v="0.12089008331298828"/>
-        <n v="0.2139027404785156"/>
-        <n v="0.36168083667755119"/>
-        <n v="0.26364140033721922"/>
-        <n v="0.23297830990382598"/>
-        <n v="0.19388269696916857"/>
-        <n v="0.22108154296874999"/>
-        <n v="0.14994135584150042"/>
-        <n v="0.28288753032684327"/>
-        <n v="0.22286528519221716"/>
-        <n v="0.25520097679562037"/>
-        <n v="0.19625756740570069"/>
-        <n v="0.21838933361901178"/>
-        <n v="0.15199145740932887"/>
-        <n v="0.24222164418962266"/>
-        <n v="0.2186420202255249"/>
-        <n v="0.41106808185577393"/>
-        <n v="0.28007107431238343"/>
-        <n v="0.21315326257185499"/>
-        <n v="0.23722678314555773"/>
-        <n v="0.3046787001869895"/>
-        <n v="0.29666952653364703"/>
-        <n v="0.16233395429757921"/>
-        <n v="0.24863527004535388"/>
-        <n v="0.28493861418503985"/>
-        <n v="0.32785411431239203"/>
-        <n v="0.27912411689758299"/>
-        <n v="0.3779610010293814"/>
-        <n v="0.29121078173319498"/>
-        <n v="0.41260380744934083"/>
-        <n v="0.33187234719594322"/>
-        <n v="0.28917852719624842"/>
-        <n v="0.24520181973775229"/>
-        <n v="0.21745263258616124"/>
-        <n v="0.21066956043243401"/>
-        <n v="0.2194727611541748"/>
-        <n v="0.35566654682159415"/>
-        <n v="0.32936762332916258"/>
-        <n v="0.2769327020645142"/>
-        <n v="0.25962459564208978"/>
-        <n v="0.25291813101087296"/>
-        <n v="0.23720506940569203"/>
-        <n v="0.34738956178937647"/>
-        <n v="0.31504498549870086"/>
-        <n v="0.30918547085353304"/>
-        <n v="0.31295927252088268"/>
-        <n v="0.2624540779325697"/>
-        <n v="0.34586811065673834"/>
-        <n v="0.38926643265618216"/>
-        <n v="0.38357052008310955"/>
-        <n v="0.31538600126902266"/>
-        <n v="0.32352622085147431"/>
-        <n v="0.286282509023493"/>
-        <n v="0.37220681580630216"/>
-        <n v="0.41343960762023924"/>
-        <n v="0.41095239249142734"/>
-        <n v="0.35271659981120718"/>
-        <n v="0.33658201694488527"/>
-        <n v="0.36279608469742991"/>
-        <n v="0.44511421643770666"/>
-        <n v="0.44474173875955442"/>
-        <n v="0.42546393137711747"/>
-        <n v="0.40743389129638674"/>
-        <n v="0.36884363797994763"/>
-        <n v="0.4168969933191935"/>
-        <n v="0.53815221150716142"/>
-        <n v="0.39953074614206946"/>
-        <n v="0.40299015363057455"/>
-        <n v="0.43496557871500652"/>
-        <n v="0.43650348027547198"/>
-        <m/>
-      </sharedItems>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.12089008331298828" maxValue="0.53815221150716142"/>
     </cacheField>
     <cacheField name="relative error" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-0.99998517800310671" maxValue="1.4170230311054941"/>
@@ -21215,7 +21234,7 @@
     <n v="13.96981406211853"/>
     <n v="5.1269046745122679"/>
     <n v="45.285037969290819"/>
-    <x v="0"/>
+    <n v="0.27939628124237059"/>
     <n v="-9.4299240614183599E-2"/>
   </r>
   <r>
@@ -21229,7 +21248,7 @@
     <n v="11.811001777648929"/>
     <n v="7.0382877419041669"/>
     <n v="84.118508682247779"/>
-    <x v="1"/>
+    <n v="0.23622003555297857"/>
     <n v="0.68237017364495567"/>
   </r>
   <r>
@@ -21243,7 +21262,7 @@
     <n v="6.0445041656494141"/>
     <n v="6.8358749745871528"/>
     <n v="90.823222393808138"/>
-    <x v="2"/>
+    <n v="0.12089008331298828"/>
     <n v="0.81646444787616268"/>
   </r>
   <r>
@@ -21257,7 +21276,7 @@
     <n v="10.695137023925779"/>
     <n v="5.3693761670574789"/>
     <n v="94.516657337611846"/>
-    <x v="3"/>
+    <n v="0.2139027404785156"/>
     <n v="0.89033314675223685"/>
   </r>
   <r>
@@ -21271,7 +21290,7 @@
     <n v="18.08404183387756"/>
     <n v="5.3501609140323731"/>
     <n v="97.212134031635657"/>
-    <x v="4"/>
+    <n v="0.36168083667755119"/>
     <n v="0.94424268063271311"/>
   </r>
   <r>
@@ -21285,7 +21304,7 @@
     <n v="13.18207001686096"/>
     <n v="6.5204713693632881"/>
     <n v="79.463193033741618"/>
-    <x v="5"/>
+    <n v="0.26364140033721922"/>
     <n v="0.58926386067483238"/>
   </r>
   <r>
@@ -21299,7 +21318,7 @@
     <n v="16.308481693267819"/>
     <n v="5.9964909743393466"/>
     <n v="50.007652278258803"/>
-    <x v="6"/>
+    <n v="0.23297830990382598"/>
     <n v="1.5304556517614643E-4"/>
   </r>
   <r>
@@ -21313,7 +21332,7 @@
     <n v="13.5717887878418"/>
     <n v="8.1872241742480139"/>
     <n v="103.2143910607915"/>
-    <x v="7"/>
+    <n v="0.19388269696916857"/>
     <n v="1.0642878212158298"/>
   </r>
   <r>
@@ -21327,7 +21346,7 @@
     <n v="15.4757080078125"/>
     <n v="7.0887295208207242"/>
     <n v="70.85738722929149"/>
-    <x v="8"/>
+    <n v="0.22108154296874999"/>
     <n v="0.41714774458582982"/>
   </r>
   <r>
@@ -21341,7 +21360,7 @@
     <n v="10.495894908905029"/>
     <n v="6.8573767877052934"/>
     <n v="115.61343536964981"/>
-    <x v="9"/>
+    <n v="0.14994135584150042"/>
     <n v="1.3122687073929962"/>
   </r>
   <r>
@@ -21355,7 +21374,7 @@
     <n v="19.802127122879028"/>
     <n v="6.4108560725298522"/>
     <n v="58.106501008268751"/>
-    <x v="10"/>
+    <n v="0.28288753032684327"/>
     <n v="0.16213002016537503"/>
   </r>
   <r>
@@ -21369,7 +21388,7 @@
     <n v="15.6005699634552"/>
     <n v="5.5522211042357421"/>
     <n v="75.75021916563017"/>
-    <x v="11"/>
+    <n v="0.22286528519221716"/>
     <n v="0.51500438331260345"/>
   </r>
   <r>
@@ -21383,7 +21402,7 @@
     <n v="22.968087911605831"/>
     <n v="4.7804517258145101"/>
     <n v="32.124843135440358"/>
-    <x v="12"/>
+    <n v="0.25520097679562037"/>
     <n v="-0.35750313729119287"/>
   </r>
   <r>
@@ -21397,7 +21416,7 @@
     <n v="17.663181066513062"/>
     <n v="6.9391897740000914"/>
     <n v="113.8220325712021"/>
-    <x v="13"/>
+    <n v="0.19625756740570069"/>
     <n v="1.2764406514240418"/>
   </r>
   <r>
@@ -21411,7 +21430,7 @@
     <n v="19.65504002571106"/>
     <n v="4.5282236333567409"/>
     <n v="45.470340356670746"/>
-    <x v="14"/>
+    <n v="0.21838933361901178"/>
     <n v="-9.0593192866585071E-2"/>
   </r>
   <r>
@@ -21425,7 +21444,7 @@
     <n v="13.6792311668396"/>
     <n v="5.8224144084543461"/>
     <n v="109.02348678489891"/>
-    <x v="15"/>
+    <n v="0.15199145740932887"/>
     <n v="1.1804697356979781"/>
   </r>
   <r>
@@ -21439,7 +21458,7 @@
     <n v="21.79994797706604"/>
     <n v="5.7450588063839341"/>
     <n v="42.825069435627739"/>
-    <x v="16"/>
+    <n v="0.24222164418962266"/>
     <n v="-0.14349861128744523"/>
   </r>
   <r>
@@ -21453,7 +21472,7 @@
     <n v="19.677781820297241"/>
     <n v="6.7618100734423088"/>
     <n v="53.111425406231056"/>
-    <x v="17"/>
+    <n v="0.2186420202255249"/>
     <n v="6.2228508124621218E-2"/>
   </r>
   <r>
@@ -21467,7 +21486,7 @@
     <n v="45.217489004135132"/>
     <n v="4.5308855612177901"/>
     <n v="32.140592326233843"/>
-    <x v="18"/>
+    <n v="0.41106808185577393"/>
     <n v="-0.35718815347532318"/>
   </r>
   <r>
@@ -21481,7 +21500,7 @@
     <n v="30.807818174362179"/>
     <n v="4.1866867604232842"/>
     <n v="29.97619483811728"/>
-    <x v="19"/>
+    <n v="0.28007107431238343"/>
     <n v="-0.40047610323765437"/>
   </r>
   <r>
@@ -21495,7 +21514,7 @@
     <n v="23.446858882904049"/>
     <n v="6.8049859983782222"/>
     <n v="52.204532462124376"/>
-    <x v="20"/>
+    <n v="0.21315326257185499"/>
     <n v="4.4090649242487512E-2"/>
   </r>
   <r>
@@ -21509,7 +21528,7 @@
     <n v="26.094946146011349"/>
     <n v="6.2882877838075926"/>
     <n v="70.84526059012083"/>
-    <x v="21"/>
+    <n v="0.23722678314555773"/>
     <n v="0.41690521180241658"/>
   </r>
   <r>
@@ -21523,7 +21542,7 @@
     <n v="33.514657020568848"/>
     <n v="5.4847861686625849"/>
     <n v="32.356471772111632"/>
-    <x v="22"/>
+    <n v="0.3046787001869895"/>
     <n v="-0.35287056455776733"/>
   </r>
   <r>
@@ -21537,7 +21556,7 @@
     <n v="32.633647918701172"/>
     <n v="3.8559999331882531"/>
     <n v="31.035552442815689"/>
-    <x v="23"/>
+    <n v="0.29666952653364703"/>
     <n v="-0.37928895114368621"/>
   </r>
   <r>
@@ -21551,7 +21570,7 @@
     <n v="21.103414058685299"/>
     <n v="7.5639614047718133"/>
     <n v="120.8511515552747"/>
-    <x v="24"/>
+    <n v="0.16233395429757921"/>
     <n v="1.4170230311054941"/>
   </r>
   <r>
@@ -21565,7 +21584,7 @@
     <n v="32.322585105896003"/>
     <n v="5.1485298585543644"/>
     <n v="53.829618090295632"/>
-    <x v="25"/>
+    <n v="0.24863527004535388"/>
     <n v="7.6592361805912557E-2"/>
   </r>
   <r>
@@ -21579,7 +21598,7 @@
     <n v="37.042019844055183"/>
     <n v="4.435207913857802"/>
     <n v="40.643995302008953"/>
-    <x v="26"/>
+    <n v="0.28493861418503985"/>
     <n v="-0.18712009395982099"/>
   </r>
   <r>
@@ -21593,7 +21612,7 @@
     <n v="42.621034860610962"/>
     <n v="4.9532793844131442"/>
     <n v="28.5704143678153"/>
-    <x v="27"/>
+    <n v="0.32785411431239203"/>
     <n v="-0.428591712643694"/>
   </r>
   <r>
@@ -21607,7 +21626,7 @@
     <n v="36.286135196685791"/>
     <n v="4.3873536601436749"/>
     <n v="20.513112244493058"/>
-    <x v="28"/>
+    <n v="0.27912411689758299"/>
     <n v="-0.58973775511013882"/>
   </r>
   <r>
@@ -21621,7 +21640,7 @@
     <n v="49.13493013381958"/>
     <n v="5.1961396415609959"/>
     <n v="59.030762250645843"/>
-    <x v="29"/>
+    <n v="0.3779610010293814"/>
     <n v="0.18061524501291681"/>
   </r>
   <r>
@@ -21635,7 +21654,7 @@
     <n v="43.681617259979248"/>
     <n v="6.1414999531518832"/>
     <n v="45.465349903027857"/>
-    <x v="30"/>
+    <n v="0.29121078173319498"/>
     <n v="-9.0693001939442852E-2"/>
   </r>
   <r>
@@ -21649,7 +21668,7 @@
     <n v="61.890571117401123"/>
     <n v="4.095452266713929"/>
     <n v="24.966421026905099"/>
-    <x v="31"/>
+    <n v="0.41260380744934083"/>
     <n v="-0.500671579461898"/>
   </r>
   <r>
@@ -21663,7 +21682,7 @@
     <n v="49.780852079391479"/>
     <n v="6.3468525385275907"/>
     <n v="50.032928581468333"/>
-    <x v="32"/>
+    <n v="0.33187234719594322"/>
     <n v="6.5857162936655556E-4"/>
   </r>
   <r>
@@ -21677,7 +21696,7 @@
     <n v="43.376779079437263"/>
     <n v="4.9354179987089051"/>
     <n v="27.59763080015064"/>
-    <x v="33"/>
+    <n v="0.28917852719624842"/>
     <n v="-0.44804738399698718"/>
   </r>
   <r>
@@ -21691,7 +21710,7 @@
     <n v="36.780272960662842"/>
     <n v="5.0951644666303384"/>
     <n v="28.51446741399916"/>
-    <x v="34"/>
+    <n v="0.24520181973775229"/>
     <n v="-0.42971065172001677"/>
   </r>
   <r>
@@ -21705,7 +21724,7 @@
     <n v="32.617894887924187"/>
     <n v="5.2047512479129452"/>
     <n v="58.622731084783602"/>
-    <x v="35"/>
+    <n v="0.21745263258616124"/>
     <n v="0.17245462169567194"/>
   </r>
   <r>
@@ -21719,7 +21738,7 @@
     <n v="10.533478021621701"/>
     <n v="1.590769249337378E-2"/>
     <n v="2.5305468046374059E-4"/>
-    <x v="36"/>
+    <n v="0.21066956043243401"/>
     <n v="-0.99974694531953623"/>
   </r>
   <r>
@@ -21733,7 +21752,7 @@
     <n v="10.97363805770874"/>
     <n v="8.6907014041035287E-3"/>
     <n v="7.5528290895287038E-5"/>
-    <x v="37"/>
+    <n v="0.2194727611541748"/>
     <n v="-0.9999244717091047"/>
   </r>
   <r>
@@ -21747,7 +21766,7 @@
     <n v="17.783327341079708"/>
     <n v="1.2540963008750671E-2"/>
     <n v="1.5727575318685261E-4"/>
-    <x v="38"/>
+    <n v="0.35566654682159415"/>
     <n v="-0.9998427242468132"/>
   </r>
   <r>
@@ -21761,7 +21780,7 @@
     <n v="16.46838116645813"/>
     <n v="1.1305929231356831E-2"/>
     <n v="1.2782403578444869E-4"/>
-    <x v="39"/>
+    <n v="0.32936762332916258"/>
     <n v="-0.99987217596421551"/>
   </r>
   <r>
@@ -21775,7 +21794,7 @@
     <n v="13.84663510322571"/>
     <n v="1.354988262098804E-2"/>
     <n v="1.8359931904255369E-4"/>
-    <x v="40"/>
+    <n v="0.2769327020645142"/>
     <n v="-0.99981640068095745"/>
   </r>
   <r>
@@ -21789,7 +21808,7 @@
     <n v="12.98122978210449"/>
     <n v="1.145656474451843E-2"/>
     <n v="1.3125287574534261E-4"/>
-    <x v="41"/>
+    <n v="0.25962459564208978"/>
     <n v="-0.99986874712425466"/>
   </r>
   <r>
@@ -21803,7 +21822,7 @@
     <n v="17.704269170761108"/>
     <n v="1.373326057503564E-2"/>
     <n v="1.886024460218282E-4"/>
-    <x v="42"/>
+    <n v="0.25291813101087296"/>
     <n v="-0.99981139755397819"/>
   </r>
   <r>
@@ -21817,7 +21836,7 @@
     <n v="16.604354858398441"/>
     <n v="1.5108669956903849E-2"/>
     <n v="2.2827190786664891E-4"/>
-    <x v="43"/>
+    <n v="0.23720506940569203"/>
     <n v="-0.99977172809213333"/>
   </r>
   <r>
@@ -21831,7 +21850,7 @@
     <n v="24.317269325256351"/>
     <n v="1.0245386336822451E-2"/>
     <n v="1.0496794119074819E-4"/>
-    <x v="44"/>
+    <n v="0.34738956178937647"/>
     <n v="-0.99989503205880925"/>
   </r>
   <r>
@@ -21845,7 +21864,7 @@
     <n v="22.053148984909061"/>
     <n v="1.1367992014884939E-2"/>
     <n v="1.2923124245048791E-4"/>
-    <x v="45"/>
+    <n v="0.31504498549870086"/>
     <n v="-0.99987076875754954"/>
   </r>
   <r>
@@ -21859,7 +21878,7 @@
     <n v="21.642982959747311"/>
     <n v="7.9944890813226227E-3"/>
     <n v="6.3911855671386656E-5"/>
-    <x v="46"/>
+    <n v="0.30918547085353304"/>
     <n v="-0.99993608814432866"/>
   </r>
   <r>
@@ -21873,7 +21892,7 @@
     <n v="21.907149076461788"/>
     <n v="8.3333368067553953E-3"/>
     <n v="6.944450233482419E-5"/>
-    <x v="47"/>
+    <n v="0.31295927252088268"/>
     <n v="-0.99993055549766519"/>
   </r>
   <r>
@@ -21887,7 +21906,7 @@
     <n v="23.620867013931271"/>
     <n v="1.839620273814753E-2"/>
     <n v="3.3842027518302662E-4"/>
-    <x v="48"/>
+    <n v="0.2624540779325697"/>
     <n v="-0.99966157972481695"/>
   </r>
   <r>
@@ -21901,7 +21920,7 @@
     <n v="31.128129959106449"/>
     <n v="1.516531677542237E-2"/>
     <n v="2.2998683289890721E-4"/>
-    <x v="49"/>
+    <n v="0.34586811065673834"/>
     <n v="-0.99977001316710112"/>
   </r>
   <r>
@@ -21915,7 +21934,7 @@
     <n v="35.033978939056396"/>
     <n v="1.21509828486082E-2"/>
     <n v="1.476463841871705E-4"/>
-    <x v="50"/>
+    <n v="0.38926643265618216"/>
     <n v="-0.99985235361581282"/>
   </r>
   <r>
@@ -21929,7 +21948,7 @@
     <n v="34.521346807479858"/>
     <n v="1.138536322049611E-2"/>
     <n v="1.2962649566262559E-4"/>
-    <x v="51"/>
+    <n v="0.38357052008310955"/>
     <n v="-0.99987037350433738"/>
   </r>
   <r>
@@ -21943,7 +21962,7 @@
     <n v="28.38474011421204"/>
     <n v="1.5671234270974589E-2"/>
     <n v="2.455875835757684E-4"/>
-    <x v="52"/>
+    <n v="0.31538600126902266"/>
     <n v="-0.99975441241642427"/>
   </r>
   <r>
@@ -21957,7 +21976,7 @@
     <n v="29.11735987663269"/>
     <n v="1.197883329128893E-2"/>
     <n v="1.4349244702049199E-4"/>
-    <x v="53"/>
+    <n v="0.32352622085147431"/>
     <n v="-0.9998565075529795"/>
   </r>
   <r>
@@ -21971,7 +21990,7 @@
     <n v="31.491075992584229"/>
     <n v="3.8499346609126091E-3"/>
     <n v="1.482199689329628E-5"/>
-    <x v="54"/>
+    <n v="0.286282509023493"/>
     <n v="-0.99998517800310671"/>
   </r>
   <r>
@@ -21985,7 +22004,7 @@
     <n v="40.942749738693237"/>
     <n v="1.205999946141628E-2"/>
     <n v="1.4544358700936111E-4"/>
-    <x v="55"/>
+    <n v="0.37220681580630216"/>
     <n v="-0.99985455641299059"/>
   </r>
   <r>
@@ -21999,7 +22018,7 @@
     <n v="45.478356838226318"/>
     <n v="6.8880689777116502E-3"/>
     <n v="4.744549424171362E-5"/>
-    <x v="56"/>
+    <n v="0.41343960762023924"/>
     <n v="-0.99995255450575826"/>
   </r>
   <r>
@@ -22013,7 +22032,7 @@
     <n v="45.204763174057007"/>
     <n v="1.1872568939792119E-2"/>
     <n v="1.4095789323011659E-4"/>
-    <x v="57"/>
+    <n v="0.41095239249142734"/>
     <n v="-0.9998590421067699"/>
   </r>
   <r>
@@ -22027,7 +22046,7 @@
     <n v="38.798825979232788"/>
     <n v="1.3604100548722501E-2"/>
     <n v="1.8507155173975179E-4"/>
-    <x v="58"/>
+    <n v="0.35271659981120718"/>
     <n v="-0.99981492844826025"/>
   </r>
   <r>
@@ -22041,7 +22060,7 @@
     <n v="37.024021863937378"/>
     <n v="7.3980944205259483E-3"/>
     <n v="5.4731801055017168E-5"/>
-    <x v="59"/>
+    <n v="0.33658201694488527"/>
     <n v="-0.99994526819894503"/>
   </r>
   <r>
@@ -22055,7 +22074,7 @@
     <n v="47.163491010665886"/>
     <n v="1.006665800809424E-2"/>
     <n v="1.01337603451928E-4"/>
-    <x v="60"/>
+    <n v="0.36279608469742991"/>
     <n v="-0.99989866239654812"/>
   </r>
   <r>
@@ -22069,7 +22088,7 @@
     <n v="57.864848136901863"/>
     <n v="1.024731139205773E-2"/>
     <n v="1.05007390765796E-4"/>
-    <x v="61"/>
+    <n v="0.44511421643770666"/>
     <n v="-0.9998949926092342"/>
   </r>
   <r>
@@ -22083,7 +22102,7 @@
     <n v="57.816426038742073"/>
     <n v="7.8809973354739722E-3"/>
     <n v="6.2110119001747855E-5"/>
-    <x v="62"/>
+    <n v="0.44474173875955442"/>
     <n v="-0.9999378898809983"/>
   </r>
   <r>
@@ -22097,7 +22116,7 @@
     <n v="55.310311079025269"/>
     <n v="5.7422613225399377E-3"/>
     <n v="3.2973565096338122E-5"/>
-    <x v="63"/>
+    <n v="0.42546393137711747"/>
     <n v="-0.99996702643490365"/>
   </r>
   <r>
@@ -22111,7 +22130,7 @@
     <n v="52.966405868530273"/>
     <n v="1.114889305268116E-2"/>
     <n v="1.2429781630012219E-4"/>
-    <x v="64"/>
+    <n v="0.40743389129638674"/>
     <n v="-0.99987570218369992"/>
   </r>
   <r>
@@ -22125,7 +22144,7 @@
     <n v="47.949672937393188"/>
     <n v="1.7831199365303259E-2"/>
     <n v="3.179516708051912E-4"/>
-    <x v="65"/>
+    <n v="0.36884363797994763"/>
     <n v="-0.99968204832919483"/>
   </r>
   <r>
@@ -22139,7 +22158,7 @@
     <n v="62.534548997879028"/>
     <n v="9.4461478385423521E-3"/>
     <n v="8.9229708987598335E-5"/>
-    <x v="66"/>
+    <n v="0.4168969933191935"/>
     <n v="-0.99991077029101239"/>
   </r>
   <r>
@@ -22153,7 +22172,7 @@
     <n v="80.722831726074219"/>
     <n v="7.5313991831719614E-3"/>
     <n v="5.6721973656283292E-5"/>
-    <x v="67"/>
+    <n v="0.53815221150716142"/>
     <n v="-0.99994327802634375"/>
   </r>
   <r>
@@ -22167,7 +22186,7 @@
     <n v="59.929611921310418"/>
     <n v="8.2615765024201312E-3"/>
     <n v="6.8253646305340435E-5"/>
-    <x v="68"/>
+    <n v="0.39953074614206946"/>
     <n v="-0.99993174635369464"/>
   </r>
   <r>
@@ -22181,7 +22200,7 @@
     <n v="60.448523044586182"/>
     <n v="9.345356255073935E-3"/>
     <n v="8.7335683534249536E-5"/>
-    <x v="69"/>
+    <n v="0.40299015363057455"/>
     <n v="-0.99991266431646575"/>
   </r>
   <r>
@@ -22195,7 +22214,7 @@
     <n v="65.244836807250977"/>
     <n v="1.455885997291128E-2"/>
     <n v="2.1196040371083841E-4"/>
-    <x v="70"/>
+    <n v="0.43496557871500652"/>
     <n v="-0.99978803959628915"/>
   </r>
   <r>
@@ -22209,7 +22228,7 @@
     <n v="65.475522041320801"/>
     <n v="1.7288707937828791E-2"/>
     <n v="2.9889942215954412E-4"/>
-    <x v="71"/>
+    <n v="0.43650348027547198"/>
     <n v="-0.99970110057784045"/>
   </r>
   <r>
@@ -22223,7 +22242,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="72"/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -22237,14 +22256,14 @@
     <m/>
     <m/>
     <m/>
-    <x v="72"/>
+    <m/>
     <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0A27E7A1-0EF9-8F4E-8885-E28FDA68C4B7}" name="PivotTable3" cacheId="134" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0A27E7A1-0EF9-8F4E-8885-E28FDA68C4B7}" name="PivotTable3" cacheId="144" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A5:E27" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -22798,7 +22817,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D6B1CF9A-79EA-394B-99A8-D193074409F5}" name="PivotTable4" cacheId="134" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D6B1CF9A-79EA-394B-99A8-D193074409F5}" name="PivotTable4" cacheId="144" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:F25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisCol" showAll="0">
@@ -23075,7 +23094,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0FDD07B2-5ED5-0A4E-9EB6-2191FA13E480}" name="PivotTable5" cacheId="135" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0FDD07B2-5ED5-0A4E-9EB6-2191FA13E480}" name="PivotTable5" cacheId="145" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A1:E16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField axis="axisRow" showAll="0">
@@ -23399,7 +23418,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6467A53A-90CB-1E48-9CA6-5538DCF70757}" name="PivotTable5" cacheId="140" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6467A53A-90CB-1E48-9CA6-5538DCF70757}" name="PivotTable5" cacheId="156" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:D9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -23430,84 +23449,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="74">
-        <item x="2"/>
-        <item x="9"/>
-        <item x="15"/>
-        <item x="24"/>
-        <item x="7"/>
-        <item x="13"/>
-        <item x="36"/>
-        <item x="20"/>
-        <item x="3"/>
-        <item x="35"/>
-        <item x="14"/>
-        <item x="17"/>
-        <item x="37"/>
-        <item x="8"/>
-        <item x="11"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="43"/>
-        <item x="21"/>
-        <item x="16"/>
-        <item x="34"/>
-        <item x="25"/>
-        <item x="42"/>
-        <item x="12"/>
-        <item x="41"/>
-        <item x="48"/>
-        <item x="5"/>
-        <item x="40"/>
-        <item x="28"/>
-        <item x="0"/>
-        <item x="19"/>
-        <item x="10"/>
-        <item x="26"/>
-        <item x="54"/>
-        <item x="33"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="22"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="45"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="27"/>
-        <item x="39"/>
-        <item x="32"/>
-        <item x="59"/>
-        <item x="49"/>
-        <item x="44"/>
-        <item x="58"/>
-        <item x="38"/>
-        <item x="4"/>
-        <item x="60"/>
-        <item x="65"/>
-        <item x="55"/>
-        <item x="29"/>
-        <item x="51"/>
-        <item x="50"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="64"/>
-        <item x="57"/>
-        <item x="18"/>
-        <item x="31"/>
-        <item x="56"/>
-        <item x="66"/>
-        <item x="63"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="62"/>
-        <item x="61"/>
-        <item x="67"/>
-        <item x="72"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
@@ -23890,8 +23832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T407"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -41001,7 +40943,7 @@
         <v>250.16844071241309</v>
       </c>
       <c r="L386">
-        <f>I386/H386</f>
+        <f t="shared" ref="L386:L407" si="19">I386/H386</f>
         <v>0.21743021130561829</v>
       </c>
       <c r="M386" s="8">
@@ -41011,7 +40953,7 @@
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A387" t="str">
-        <f>C387&amp;B387</f>
+        <f t="shared" ref="A387:A407" si="20">C387&amp;B387</f>
         <v>rastrigin20</v>
       </c>
       <c r="B387">
@@ -41045,17 +40987,17 @@
         <v>199.8494068372456</v>
       </c>
       <c r="L387">
-        <f>I387/H387</f>
+        <f t="shared" si="19"/>
         <v>1.1030550336837768</v>
       </c>
       <c r="M387" s="8">
-        <f>K387/_xlfn.XLOOKUP(A387,S$2:S$10,T$2:T$10)-1</f>
+        <f t="shared" ref="M387:M407" si="21">K387/_xlfn.XLOOKUP(A387,S$2:S$10,T$2:T$10)-1</f>
         <v>2.9969881367449118</v>
       </c>
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A388" t="str">
-        <f>C388&amp;B388</f>
+        <f t="shared" si="20"/>
         <v>rastrigin20</v>
       </c>
       <c r="B388">
@@ -41089,17 +41031,17 @@
         <v>266.36262043375831</v>
       </c>
       <c r="L388">
-        <f>I388/H388</f>
+        <f t="shared" si="19"/>
         <v>1.3099771867627683</v>
       </c>
       <c r="M388" s="8">
-        <f>K388/_xlfn.XLOOKUP(A388,S$2:S$10,T$2:T$10)-1</f>
+        <f t="shared" si="21"/>
         <v>4.3272524086751663</v>
       </c>
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A389" t="str">
-        <f>C389&amp;B389</f>
+        <f t="shared" si="20"/>
         <v>rastrigin20</v>
       </c>
       <c r="B389">
@@ -41133,17 +41075,17 @@
         <v>58.682202096976972</v>
       </c>
       <c r="L389">
-        <f>I389/H389</f>
+        <f t="shared" si="19"/>
         <v>0.67178136157989499</v>
       </c>
       <c r="M389" s="8">
-        <f>K389/_xlfn.XLOOKUP(A389,S$2:S$10,T$2:T$10)-1</f>
+        <f t="shared" si="21"/>
         <v>0.17364404193953953</v>
       </c>
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A390" t="str">
-        <f>C390&amp;B390</f>
+        <f t="shared" si="20"/>
         <v>rastrigin20</v>
       </c>
       <c r="B390">
@@ -41177,17 +41119,17 @@
         <v>248.37807045852969</v>
       </c>
       <c r="L390">
-        <f>I390/H390</f>
+        <f t="shared" si="19"/>
         <v>0.15982497930526729</v>
       </c>
       <c r="M390" s="8">
-        <f>K390/_xlfn.XLOOKUP(A390,S$2:S$10,T$2:T$10)-1</f>
+        <f t="shared" si="21"/>
         <v>3.9675614091705942</v>
       </c>
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A391" t="str">
-        <f>C391&amp;B391</f>
+        <f t="shared" si="20"/>
         <v>rastrigin20</v>
       </c>
       <c r="B391">
@@ -41221,17 +41163,17 @@
         <v>199.20863895973079</v>
       </c>
       <c r="L391">
-        <f>I391/H391</f>
+        <f t="shared" si="19"/>
         <v>0.1324009919166565</v>
       </c>
       <c r="M391" s="8">
-        <f>K391/_xlfn.XLOOKUP(A391,S$2:S$10,T$2:T$10)-1</f>
+        <f t="shared" si="21"/>
         <v>2.984172779194616</v>
       </c>
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A392" t="str">
-        <f>C392&amp;B392</f>
+        <f t="shared" si="20"/>
         <v>rastrigin20</v>
       </c>
       <c r="B392">
@@ -41265,17 +41207,17 @@
         <v>203.8319800057634</v>
       </c>
       <c r="L392">
-        <f>I392/H392</f>
+        <f t="shared" si="19"/>
         <v>0.16371045351028438</v>
       </c>
       <c r="M392" s="8">
-        <f>K392/_xlfn.XLOOKUP(A392,S$2:S$10,T$2:T$10)-1</f>
+        <f t="shared" si="21"/>
         <v>3.0766396001152678</v>
       </c>
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A393" t="str">
-        <f>C393&amp;B393</f>
+        <f t="shared" si="20"/>
         <v>rastrigin20</v>
       </c>
       <c r="B393">
@@ -41309,17 +41251,17 @@
         <v>222.27904298832911</v>
       </c>
       <c r="L393">
-        <f>I393/H393</f>
+        <f t="shared" si="19"/>
         <v>0.1929424548149109</v>
       </c>
       <c r="M393" s="8">
-        <f>K393/_xlfn.XLOOKUP(A393,S$2:S$10,T$2:T$10)-1</f>
+        <f t="shared" si="21"/>
         <v>3.445580859766582</v>
       </c>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A394" t="str">
-        <f>C394&amp;B394</f>
+        <f t="shared" si="20"/>
         <v>rastrigin20</v>
       </c>
       <c r="B394">
@@ -41353,17 +41295,17 @@
         <v>208.22277121876709</v>
       </c>
       <c r="L394">
-        <f>I394/H394</f>
+        <f t="shared" si="19"/>
         <v>0.18256292462348941</v>
       </c>
       <c r="M394" s="8">
-        <f>K394/_xlfn.XLOOKUP(A394,S$2:S$10,T$2:T$10)-1</f>
+        <f t="shared" si="21"/>
         <v>3.1644554243753422</v>
       </c>
     </row>
     <row r="395" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A395" t="str">
-        <f>C395&amp;B395</f>
+        <f t="shared" si="20"/>
         <v>rastrigin20</v>
       </c>
       <c r="B395">
@@ -41397,17 +41339,17 @@
         <v>164.00296165787941</v>
       </c>
       <c r="L395">
-        <f>I395/H395</f>
+        <f t="shared" si="19"/>
         <v>0.29461483001708982</v>
       </c>
       <c r="M395" s="8">
-        <f>K395/_xlfn.XLOOKUP(A395,S$2:S$10,T$2:T$10)-1</f>
+        <f t="shared" si="21"/>
         <v>2.2800592331575884</v>
       </c>
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A396" t="str">
-        <f>C396&amp;B396</f>
+        <f t="shared" si="20"/>
         <v>rastrigin20</v>
       </c>
       <c r="B396">
@@ -41441,17 +41383,17 @@
         <v>175.1043363724842</v>
       </c>
       <c r="L396">
-        <f>I396/H396</f>
+        <f t="shared" si="19"/>
         <v>0.55210454177856449</v>
       </c>
       <c r="M396" s="8">
-        <f>K396/_xlfn.XLOOKUP(A396,S$2:S$10,T$2:T$10)-1</f>
+        <f t="shared" si="21"/>
         <v>2.5020867274496839</v>
       </c>
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A397" t="str">
-        <f>C397&amp;B397</f>
+        <f t="shared" si="20"/>
         <v>rastrigin20</v>
       </c>
       <c r="B397">
@@ -41485,17 +41427,17 @@
         <v>188.7257133838462</v>
       </c>
       <c r="L397">
-        <f>I397/H397</f>
+        <f t="shared" si="19"/>
         <v>0.5438138480186463</v>
       </c>
       <c r="M397" s="8">
-        <f>K397/_xlfn.XLOOKUP(A397,S$2:S$10,T$2:T$10)-1</f>
+        <f t="shared" si="21"/>
         <v>2.7745142676769241</v>
       </c>
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A398" t="str">
-        <f>C398&amp;B398</f>
+        <f t="shared" si="20"/>
         <v>rastrigin20</v>
       </c>
       <c r="B398">
@@ -41529,17 +41471,17 @@
         <v>96.676324416773568</v>
       </c>
       <c r="L398">
-        <f>I398/H398</f>
+        <f t="shared" si="19"/>
         <v>0.50602079677581779</v>
       </c>
       <c r="M398" s="8">
-        <f>K398/_xlfn.XLOOKUP(A398,S$2:S$10,T$2:T$10)-1</f>
+        <f t="shared" si="21"/>
         <v>0.93352648833547125</v>
       </c>
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A399" t="str">
-        <f>C399&amp;B399</f>
+        <f t="shared" si="20"/>
         <v>rastrigin20</v>
       </c>
       <c r="B399">
@@ -41573,17 +41515,17 @@
         <v>246.2710686958919</v>
       </c>
       <c r="L399">
-        <f>I399/H399</f>
+        <f t="shared" si="19"/>
         <v>0.1376315808296204</v>
       </c>
       <c r="M399" s="8">
-        <f>K399/_xlfn.XLOOKUP(A399,S$2:S$10,T$2:T$10)-1</f>
+        <f t="shared" si="21"/>
         <v>3.9254213739178381</v>
       </c>
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A400" t="str">
-        <f>C400&amp;B400</f>
+        <f t="shared" si="20"/>
         <v>rastrigin20</v>
       </c>
       <c r="B400">
@@ -41617,17 +41559,17 @@
         <v>221.05473606544871</v>
       </c>
       <c r="L400">
-        <f>I400/H400</f>
+        <f t="shared" si="19"/>
         <v>0.14743869066238399</v>
       </c>
       <c r="M400" s="8">
-        <f>K400/_xlfn.XLOOKUP(A400,S$2:S$10,T$2:T$10)-1</f>
+        <f t="shared" si="21"/>
         <v>3.4210947213089744</v>
       </c>
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A401" t="str">
-        <f>C401&amp;B401</f>
+        <f t="shared" si="20"/>
         <v>rastrigin20</v>
       </c>
       <c r="B401">
@@ -41661,17 +41603,17 @@
         <v>152.53100252929539</v>
       </c>
       <c r="L401">
-        <f>I401/H401</f>
+        <f t="shared" si="19"/>
         <v>0.15048236131668091</v>
       </c>
       <c r="M401" s="8">
-        <f>K401/_xlfn.XLOOKUP(A401,S$2:S$10,T$2:T$10)-1</f>
+        <f t="shared" si="21"/>
         <v>2.0506200505859078</v>
       </c>
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A402" t="str">
-        <f>C402&amp;B402</f>
+        <f t="shared" si="20"/>
         <v>rastrigin20</v>
       </c>
       <c r="B402">
@@ -41705,17 +41647,17 @@
         <v>173.58074622268131</v>
       </c>
       <c r="L402">
-        <f>I402/H402</f>
+        <f t="shared" si="19"/>
         <v>0.20265485405921935</v>
       </c>
       <c r="M402" s="8">
-        <f>K402/_xlfn.XLOOKUP(A402,S$2:S$10,T$2:T$10)-1</f>
+        <f t="shared" si="21"/>
         <v>2.4716149244536263</v>
       </c>
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A403" t="str">
-        <f>C403&amp;B403</f>
+        <f t="shared" si="20"/>
         <v>rastrigin20</v>
       </c>
       <c r="B403">
@@ -41749,17 +41691,17 @@
         <v>231.9831274211902</v>
       </c>
       <c r="L403">
-        <f>I403/H403</f>
+        <f t="shared" si="19"/>
         <v>0.18028980493545529</v>
       </c>
       <c r="M403" s="8">
-        <f>K403/_xlfn.XLOOKUP(A403,S$2:S$10,T$2:T$10)-1</f>
+        <f t="shared" si="21"/>
         <v>3.6396625484238037</v>
       </c>
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A404" t="str">
-        <f>C404&amp;B404</f>
+        <f t="shared" si="20"/>
         <v>rastrigin20</v>
       </c>
       <c r="B404">
@@ -41793,17 +41735,17 @@
         <v>123.2365308265863</v>
       </c>
       <c r="L404">
-        <f>I404/H404</f>
+        <f t="shared" si="19"/>
         <v>0.25961536049842837</v>
       </c>
       <c r="M404" s="8">
-        <f>K404/_xlfn.XLOOKUP(A404,S$2:S$10,T$2:T$10)-1</f>
+        <f t="shared" si="21"/>
         <v>1.464730616531726</v>
       </c>
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A405" t="str">
-        <f>C405&amp;B405</f>
+        <f t="shared" si="20"/>
         <v>rastrigin20</v>
       </c>
       <c r="B405">
@@ -41837,17 +41779,17 @@
         <v>208.7685802272249</v>
       </c>
       <c r="L405">
-        <f>I405/H405</f>
+        <f t="shared" si="19"/>
         <v>0.51460676813125616</v>
       </c>
       <c r="M405" s="8">
-        <f>K405/_xlfn.XLOOKUP(A405,S$2:S$10,T$2:T$10)-1</f>
+        <f t="shared" si="21"/>
         <v>3.1753716045444982</v>
       </c>
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A406" t="str">
-        <f>C406&amp;B406</f>
+        <f t="shared" si="20"/>
         <v>rastrigin20</v>
       </c>
       <c r="B406">
@@ -41881,17 +41823,17 @@
         <v>218.26841347116729</v>
       </c>
       <c r="L406">
-        <f>I406/H406</f>
+        <f t="shared" si="19"/>
         <v>0.55323234605789184</v>
       </c>
       <c r="M406" s="8">
-        <f>K406/_xlfn.XLOOKUP(A406,S$2:S$10,T$2:T$10)-1</f>
+        <f t="shared" si="21"/>
         <v>3.365368269423346</v>
       </c>
     </row>
     <row r="407" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A407" t="str">
-        <f>C407&amp;B407</f>
+        <f t="shared" si="20"/>
         <v>rastrigin20</v>
       </c>
       <c r="B407">
@@ -41925,11 +41867,11 @@
         <v>186.30077118603029</v>
       </c>
       <c r="L407">
-        <f>I407/H407</f>
+        <f t="shared" si="19"/>
         <v>0.50604141235351563</v>
       </c>
       <c r="M407" s="8">
-        <f>K407/_xlfn.XLOOKUP(A407,S$2:S$10,T$2:T$10)-1</f>
+        <f t="shared" si="21"/>
         <v>2.7260154237206056</v>
       </c>
     </row>
@@ -43015,8 +42957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68700871-1C8F-3244-9E18-6FEAB98C5A57}">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -43095,7 +43037,7 @@
         <v>45.285037969290819</v>
       </c>
       <c r="L2">
-        <f>I2/H2</f>
+        <f t="shared" ref="L2:L33" si="0">I2/H2</f>
         <v>0.27939628124237059</v>
       </c>
       <c r="M2" s="8">
@@ -43139,7 +43081,7 @@
         <v>84.118508682247779</v>
       </c>
       <c r="L3">
-        <f>I3/H3</f>
+        <f t="shared" si="0"/>
         <v>0.23622003555297857</v>
       </c>
       <c r="M3" s="8">
@@ -43183,7 +43125,7 @@
         <v>90.823222393808138</v>
       </c>
       <c r="L4">
-        <f>I4/H4</f>
+        <f t="shared" si="0"/>
         <v>0.12089008331298828</v>
       </c>
       <c r="M4" s="8">
@@ -43227,7 +43169,7 @@
         <v>94.516657337611846</v>
       </c>
       <c r="L5">
-        <f>I5/H5</f>
+        <f t="shared" si="0"/>
         <v>0.2139027404785156</v>
       </c>
       <c r="M5" s="8">
@@ -43271,7 +43213,7 @@
         <v>97.212134031635657</v>
       </c>
       <c r="L6">
-        <f>I6/H6</f>
+        <f t="shared" si="0"/>
         <v>0.36168083667755119</v>
       </c>
       <c r="M6" s="8">
@@ -43315,7 +43257,7 @@
         <v>79.463193033741618</v>
       </c>
       <c r="L7">
-        <f>I7/H7</f>
+        <f t="shared" si="0"/>
         <v>0.26364140033721922</v>
       </c>
       <c r="M7" s="8">
@@ -43359,7 +43301,7 @@
         <v>50.007652278258803</v>
       </c>
       <c r="L8">
-        <f>I8/H8</f>
+        <f t="shared" si="0"/>
         <v>0.23297830990382598</v>
       </c>
       <c r="M8" s="8">
@@ -43403,7 +43345,7 @@
         <v>103.2143910607915</v>
       </c>
       <c r="L9">
-        <f>I9/H9</f>
+        <f t="shared" si="0"/>
         <v>0.19388269696916857</v>
       </c>
       <c r="M9" s="8">
@@ -43447,7 +43389,7 @@
         <v>70.85738722929149</v>
       </c>
       <c r="L10">
-        <f>I10/H10</f>
+        <f t="shared" si="0"/>
         <v>0.22108154296874999</v>
       </c>
       <c r="M10" s="8">
@@ -43491,7 +43433,7 @@
         <v>115.61343536964981</v>
       </c>
       <c r="L11">
-        <f>I11/H11</f>
+        <f t="shared" si="0"/>
         <v>0.14994135584150042</v>
       </c>
       <c r="M11" s="8">
@@ -43535,7 +43477,7 @@
         <v>58.106501008268751</v>
       </c>
       <c r="L12">
-        <f>I12/H12</f>
+        <f t="shared" si="0"/>
         <v>0.28288753032684327</v>
       </c>
       <c r="M12" s="8">
@@ -43579,7 +43521,7 @@
         <v>75.75021916563017</v>
       </c>
       <c r="L13">
-        <f>I13/H13</f>
+        <f t="shared" si="0"/>
         <v>0.22286528519221716</v>
       </c>
       <c r="M13" s="8">
@@ -43623,7 +43565,7 @@
         <v>32.124843135440358</v>
       </c>
       <c r="L14">
-        <f>I14/H14</f>
+        <f t="shared" si="0"/>
         <v>0.25520097679562037</v>
       </c>
       <c r="M14" s="8">
@@ -43667,7 +43609,7 @@
         <v>113.8220325712021</v>
       </c>
       <c r="L15">
-        <f>I15/H15</f>
+        <f t="shared" si="0"/>
         <v>0.19625756740570069</v>
       </c>
       <c r="M15" s="8">
@@ -43711,7 +43653,7 @@
         <v>45.470340356670746</v>
       </c>
       <c r="L16">
-        <f>I16/H16</f>
+        <f t="shared" si="0"/>
         <v>0.21838933361901178</v>
       </c>
       <c r="M16" s="8">
@@ -43755,7 +43697,7 @@
         <v>109.02348678489891</v>
       </c>
       <c r="L17">
-        <f>I17/H17</f>
+        <f t="shared" si="0"/>
         <v>0.15199145740932887</v>
       </c>
       <c r="M17" s="8">
@@ -43799,7 +43741,7 @@
         <v>42.825069435627739</v>
       </c>
       <c r="L18">
-        <f>I18/H18</f>
+        <f t="shared" si="0"/>
         <v>0.24222164418962266</v>
       </c>
       <c r="M18" s="8">
@@ -43843,7 +43785,7 @@
         <v>53.111425406231056</v>
       </c>
       <c r="L19">
-        <f>I19/H19</f>
+        <f t="shared" si="0"/>
         <v>0.2186420202255249</v>
       </c>
       <c r="M19" s="8">
@@ -43887,7 +43829,7 @@
         <v>32.140592326233843</v>
       </c>
       <c r="L20">
-        <f>I20/H20</f>
+        <f t="shared" si="0"/>
         <v>0.41106808185577393</v>
       </c>
       <c r="M20" s="8">
@@ -43931,7 +43873,7 @@
         <v>29.97619483811728</v>
       </c>
       <c r="L21">
-        <f>I21/H21</f>
+        <f t="shared" si="0"/>
         <v>0.28007107431238343</v>
       </c>
       <c r="M21" s="8">
@@ -43975,7 +43917,7 @@
         <v>52.204532462124376</v>
       </c>
       <c r="L22">
-        <f>I22/H22</f>
+        <f t="shared" si="0"/>
         <v>0.21315326257185499</v>
       </c>
       <c r="M22" s="8">
@@ -44019,7 +43961,7 @@
         <v>70.84526059012083</v>
       </c>
       <c r="L23">
-        <f>I23/H23</f>
+        <f t="shared" si="0"/>
         <v>0.23722678314555773</v>
       </c>
       <c r="M23" s="8">
@@ -44063,7 +44005,7 @@
         <v>32.356471772111632</v>
       </c>
       <c r="L24">
-        <f>I24/H24</f>
+        <f t="shared" si="0"/>
         <v>0.3046787001869895</v>
       </c>
       <c r="M24" s="8">
@@ -44107,7 +44049,7 @@
         <v>31.035552442815689</v>
       </c>
       <c r="L25">
-        <f>I25/H25</f>
+        <f t="shared" si="0"/>
         <v>0.29666952653364703</v>
       </c>
       <c r="M25" s="8">
@@ -44151,7 +44093,7 @@
         <v>120.8511515552747</v>
       </c>
       <c r="L26">
-        <f>I26/H26</f>
+        <f t="shared" si="0"/>
         <v>0.16233395429757921</v>
       </c>
       <c r="M26" s="8">
@@ -44195,7 +44137,7 @@
         <v>53.829618090295632</v>
       </c>
       <c r="L27">
-        <f>I27/H27</f>
+        <f t="shared" si="0"/>
         <v>0.24863527004535388</v>
       </c>
       <c r="M27" s="8">
@@ -44239,7 +44181,7 @@
         <v>40.643995302008953</v>
       </c>
       <c r="L28">
-        <f>I28/H28</f>
+        <f t="shared" si="0"/>
         <v>0.28493861418503985</v>
       </c>
       <c r="M28" s="8">
@@ -44283,7 +44225,7 @@
         <v>28.5704143678153</v>
       </c>
       <c r="L29">
-        <f>I29/H29</f>
+        <f t="shared" si="0"/>
         <v>0.32785411431239203</v>
       </c>
       <c r="M29" s="8">
@@ -44327,7 +44269,7 @@
         <v>20.513112244493058</v>
       </c>
       <c r="L30">
-        <f>I30/H30</f>
+        <f t="shared" si="0"/>
         <v>0.27912411689758299</v>
       </c>
       <c r="M30" s="8">
@@ -44371,7 +44313,7 @@
         <v>59.030762250645843</v>
       </c>
       <c r="L31">
-        <f>I31/H31</f>
+        <f t="shared" si="0"/>
         <v>0.3779610010293814</v>
       </c>
       <c r="M31" s="8">
@@ -44415,7 +44357,7 @@
         <v>45.465349903027857</v>
       </c>
       <c r="L32">
-        <f>I32/H32</f>
+        <f t="shared" si="0"/>
         <v>0.29121078173319498</v>
       </c>
       <c r="M32" s="8">
@@ -44459,7 +44401,7 @@
         <v>24.966421026905099</v>
       </c>
       <c r="L33">
-        <f>I33/H33</f>
+        <f t="shared" si="0"/>
         <v>0.41260380744934083</v>
       </c>
       <c r="M33" s="8">
@@ -44503,7 +44445,7 @@
         <v>50.032928581468333</v>
       </c>
       <c r="L34">
-        <f>I34/H34</f>
+        <f t="shared" ref="L34:L65" si="1">I34/H34</f>
         <v>0.33187234719594322</v>
       </c>
       <c r="M34" s="8">
@@ -44547,7 +44489,7 @@
         <v>27.59763080015064</v>
       </c>
       <c r="L35">
-        <f>I35/H35</f>
+        <f t="shared" si="1"/>
         <v>0.28917852719624842</v>
       </c>
       <c r="M35" s="8">
@@ -44591,7 +44533,7 @@
         <v>28.51446741399916</v>
       </c>
       <c r="L36">
-        <f>I36/H36</f>
+        <f t="shared" si="1"/>
         <v>0.24520181973775229</v>
       </c>
       <c r="M36" s="8">
@@ -44635,7 +44577,7 @@
         <v>58.622731084783602</v>
       </c>
       <c r="L37">
-        <f>I37/H37</f>
+        <f t="shared" si="1"/>
         <v>0.21745263258616124</v>
       </c>
       <c r="M37" s="8">
@@ -44679,7 +44621,7 @@
         <v>2.5305468046374059E-4</v>
       </c>
       <c r="L38">
-        <f>I38/H38</f>
+        <f t="shared" si="1"/>
         <v>0.21066956043243401</v>
       </c>
       <c r="M38" s="8">
@@ -44723,7 +44665,7 @@
         <v>7.5528290895287038E-5</v>
       </c>
       <c r="L39">
-        <f>I39/H39</f>
+        <f t="shared" si="1"/>
         <v>0.2194727611541748</v>
       </c>
       <c r="M39" s="8">
@@ -44767,7 +44709,7 @@
         <v>1.5727575318685261E-4</v>
       </c>
       <c r="L40">
-        <f>I40/H40</f>
+        <f t="shared" si="1"/>
         <v>0.35566654682159415</v>
       </c>
       <c r="M40" s="8">
@@ -44811,7 +44753,7 @@
         <v>1.2782403578444869E-4</v>
       </c>
       <c r="L41">
-        <f>I41/H41</f>
+        <f t="shared" si="1"/>
         <v>0.32936762332916258</v>
       </c>
       <c r="M41" s="8">
@@ -44855,7 +44797,7 @@
         <v>1.8359931904255369E-4</v>
       </c>
       <c r="L42">
-        <f>I42/H42</f>
+        <f t="shared" si="1"/>
         <v>0.2769327020645142</v>
       </c>
       <c r="M42" s="8">
@@ -44899,7 +44841,7 @@
         <v>1.3125287574534261E-4</v>
       </c>
       <c r="L43">
-        <f>I43/H43</f>
+        <f t="shared" si="1"/>
         <v>0.25962459564208978</v>
       </c>
       <c r="M43" s="8">
@@ -44943,7 +44885,7 @@
         <v>1.886024460218282E-4</v>
       </c>
       <c r="L44">
-        <f>I44/H44</f>
+        <f t="shared" si="1"/>
         <v>0.25291813101087296</v>
       </c>
       <c r="M44" s="8">
@@ -44987,7 +44929,7 @@
         <v>2.2827190786664891E-4</v>
       </c>
       <c r="L45">
-        <f>I45/H45</f>
+        <f t="shared" si="1"/>
         <v>0.23720506940569203</v>
       </c>
       <c r="M45" s="8">
@@ -45031,7 +44973,7 @@
         <v>1.0496794119074819E-4</v>
       </c>
       <c r="L46">
-        <f>I46/H46</f>
+        <f t="shared" si="1"/>
         <v>0.34738956178937647</v>
       </c>
       <c r="M46" s="8">
@@ -45075,7 +45017,7 @@
         <v>1.2923124245048791E-4</v>
       </c>
       <c r="L47">
-        <f>I47/H47</f>
+        <f t="shared" si="1"/>
         <v>0.31504498549870086</v>
       </c>
       <c r="M47" s="8">
@@ -45119,7 +45061,7 @@
         <v>6.3911855671386656E-5</v>
       </c>
       <c r="L48">
-        <f>I48/H48</f>
+        <f t="shared" si="1"/>
         <v>0.30918547085353304</v>
       </c>
       <c r="M48" s="8">
@@ -45163,7 +45105,7 @@
         <v>6.944450233482419E-5</v>
       </c>
       <c r="L49">
-        <f>I49/H49</f>
+        <f t="shared" si="1"/>
         <v>0.31295927252088268</v>
       </c>
       <c r="M49" s="8">
@@ -45207,7 +45149,7 @@
         <v>3.3842027518302662E-4</v>
       </c>
       <c r="L50">
-        <f>I50/H50</f>
+        <f t="shared" si="1"/>
         <v>0.2624540779325697</v>
       </c>
       <c r="M50" s="8">
@@ -45251,7 +45193,7 @@
         <v>2.2998683289890721E-4</v>
       </c>
       <c r="L51">
-        <f>I51/H51</f>
+        <f t="shared" si="1"/>
         <v>0.34586811065673834</v>
       </c>
       <c r="M51" s="8">
@@ -45295,7 +45237,7 @@
         <v>1.476463841871705E-4</v>
       </c>
       <c r="L52">
-        <f>I52/H52</f>
+        <f t="shared" si="1"/>
         <v>0.38926643265618216</v>
       </c>
       <c r="M52" s="8">
@@ -45339,7 +45281,7 @@
         <v>1.2962649566262559E-4</v>
       </c>
       <c r="L53">
-        <f>I53/H53</f>
+        <f t="shared" si="1"/>
         <v>0.38357052008310955</v>
       </c>
       <c r="M53" s="8">
@@ -45383,7 +45325,7 @@
         <v>2.455875835757684E-4</v>
       </c>
       <c r="L54">
-        <f>I54/H54</f>
+        <f t="shared" si="1"/>
         <v>0.31538600126902266</v>
       </c>
       <c r="M54" s="8">
@@ -45427,7 +45369,7 @@
         <v>1.4349244702049199E-4</v>
       </c>
       <c r="L55">
-        <f>I55/H55</f>
+        <f t="shared" si="1"/>
         <v>0.32352622085147431</v>
       </c>
       <c r="M55" s="8">
@@ -45471,7 +45413,7 @@
         <v>1.482199689329628E-5</v>
       </c>
       <c r="L56">
-        <f>I56/H56</f>
+        <f t="shared" si="1"/>
         <v>0.286282509023493</v>
       </c>
       <c r="M56" s="8">
@@ -45515,7 +45457,7 @@
         <v>1.4544358700936111E-4</v>
       </c>
       <c r="L57">
-        <f>I57/H57</f>
+        <f t="shared" si="1"/>
         <v>0.37220681580630216</v>
       </c>
       <c r="M57" s="8">
@@ -45559,7 +45501,7 @@
         <v>4.744549424171362E-5</v>
       </c>
       <c r="L58">
-        <f>I58/H58</f>
+        <f t="shared" si="1"/>
         <v>0.41343960762023924</v>
       </c>
       <c r="M58" s="8">
@@ -45603,7 +45545,7 @@
         <v>1.4095789323011659E-4</v>
       </c>
       <c r="L59">
-        <f>I59/H59</f>
+        <f t="shared" si="1"/>
         <v>0.41095239249142734</v>
       </c>
       <c r="M59" s="8">
@@ -45647,7 +45589,7 @@
         <v>1.8507155173975179E-4</v>
       </c>
       <c r="L60">
-        <f>I60/H60</f>
+        <f t="shared" si="1"/>
         <v>0.35271659981120718</v>
       </c>
       <c r="M60" s="8">
@@ -45691,7 +45633,7 @@
         <v>5.4731801055017168E-5</v>
       </c>
       <c r="L61">
-        <f>I61/H61</f>
+        <f t="shared" si="1"/>
         <v>0.33658201694488527</v>
       </c>
       <c r="M61" s="8">
@@ -45735,7 +45677,7 @@
         <v>1.01337603451928E-4</v>
       </c>
       <c r="L62">
-        <f>I62/H62</f>
+        <f t="shared" si="1"/>
         <v>0.36279608469742991</v>
       </c>
       <c r="M62" s="8">
@@ -45779,7 +45721,7 @@
         <v>1.05007390765796E-4</v>
       </c>
       <c r="L63">
-        <f>I63/H63</f>
+        <f t="shared" si="1"/>
         <v>0.44511421643770666</v>
       </c>
       <c r="M63" s="8">
@@ -45823,7 +45765,7 @@
         <v>6.2110119001747855E-5</v>
       </c>
       <c r="L64">
-        <f>I64/H64</f>
+        <f t="shared" si="1"/>
         <v>0.44474173875955442</v>
       </c>
       <c r="M64" s="8">
@@ -45867,7 +45809,7 @@
         <v>3.2973565096338122E-5</v>
       </c>
       <c r="L65">
-        <f>I65/H65</f>
+        <f t="shared" si="1"/>
         <v>0.42546393137711747</v>
       </c>
       <c r="M65" s="8">
@@ -45911,7 +45853,7 @@
         <v>1.2429781630012219E-4</v>
       </c>
       <c r="L66">
-        <f>I66/H66</f>
+        <f t="shared" ref="L66:L73" si="2">I66/H66</f>
         <v>0.40743389129638674</v>
       </c>
       <c r="M66" s="8">
@@ -45955,7 +45897,7 @@
         <v>3.179516708051912E-4</v>
       </c>
       <c r="L67">
-        <f>I67/H67</f>
+        <f t="shared" si="2"/>
         <v>0.36884363797994763</v>
       </c>
       <c r="M67" s="8">
@@ -45999,7 +45941,7 @@
         <v>8.9229708987598335E-5</v>
       </c>
       <c r="L68">
-        <f>I68/H68</f>
+        <f t="shared" si="2"/>
         <v>0.4168969933191935</v>
       </c>
       <c r="M68" s="8">
@@ -46043,7 +45985,7 @@
         <v>5.6721973656283292E-5</v>
       </c>
       <c r="L69">
-        <f>I69/H69</f>
+        <f t="shared" si="2"/>
         <v>0.53815221150716142</v>
       </c>
       <c r="M69" s="8">
@@ -46087,7 +46029,7 @@
         <v>6.8253646305340435E-5</v>
       </c>
       <c r="L70">
-        <f>I70/H70</f>
+        <f t="shared" si="2"/>
         <v>0.39953074614206946</v>
       </c>
       <c r="M70" s="8">
@@ -46131,7 +46073,7 @@
         <v>8.7335683534249536E-5</v>
       </c>
       <c r="L71">
-        <f>I71/H71</f>
+        <f t="shared" si="2"/>
         <v>0.40299015363057455</v>
       </c>
       <c r="M71" s="8">
@@ -46175,7 +46117,7 @@
         <v>2.1196040371083841E-4</v>
       </c>
       <c r="L72">
-        <f>I72/H72</f>
+        <f t="shared" si="2"/>
         <v>0.43496557871500652</v>
       </c>
       <c r="M72" s="8">
@@ -46219,7 +46161,7 @@
         <v>2.9889942215954412E-4</v>
       </c>
       <c r="L73">
-        <f>I73/H73</f>
+        <f t="shared" si="2"/>
         <v>0.43650348027547198</v>
       </c>
       <c r="M73" s="8">
@@ -46244,7 +46186,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
